--- a/1_wiktionary_parsen/Steuertabellen/löschliste.xlsx
+++ b/1_wiktionary_parsen/Steuertabellen/löschliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lex" sheetId="1" state="visible" r:id="rId2"/>
@@ -1269,15 +1269,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1288,13 +1279,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ351"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
@@ -2151,15 +2142,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ350"/>
+  <dimension ref="A1:AMJ349"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A347" activeCellId="0" sqref="A347"/>
+      <selection pane="bottomLeft" activeCell="A336" activeCellId="0" sqref="A336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
@@ -3848,11 +3839,11 @@
         <v>355</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="3"/>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2"/>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3878,7 +3869,7 @@
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>

--- a/1_wiktionary_parsen/Steuertabellen/löschliste.xlsx
+++ b/1_wiktionary_parsen/Steuertabellen/löschliste.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lex" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="lemma" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="section_id2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="data" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="609">
   <si>
     <t xml:space="preserve">lex</t>
   </si>
@@ -90,6 +91,9 @@
     <t xml:space="preserve">Xer</t>
   </si>
   <si>
+    <t xml:space="preserve">humorigg.s</t>
+  </si>
+  <si>
     <t xml:space="preserve">lemma</t>
   </si>
   <si>
@@ -561,9 +565,6 @@
     <t xml:space="preserve">göttern</t>
   </si>
   <si>
-    <t xml:space="preserve">handstoppen</t>
-  </si>
-  <si>
     <t xml:space="preserve">handyfonieren</t>
   </si>
   <si>
@@ -1092,6 +1093,657 @@
     <t xml:space="preserve">γ-Aminobuttersäure</t>
   </si>
   <si>
+    <t xml:space="preserve">Rauchblättriger Schwefelkopf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unpersönlicher Ausdruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjektivisches Satzglied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adverbiales Satzglied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etymologisches Wörterbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grammatisches Geschlecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rückläufiges Wörterbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onomasiologisches Wörterbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phonologisches Wörterbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semasiologisches Wörterbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nominales Satzglied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbales Satzglied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">präpositionales Satzglied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aberratio ictus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abgeschrägtes Hexaeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etymologisches Spektrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semantischer Wert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhetischer Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direkter Sprechakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerollter Laut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illokutionärer Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illokutiver Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirekter Sprechakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lokutionärer Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lokutiver Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perlokutionärer Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perlokutiver Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phatischer Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phonetischer Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propositionaler Akt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echter Alant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallertiger Zitterzahn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">besitzanzeigendes Fürwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezügliches Fürwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direktes Objekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distinktives Merkmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">durchsichtiges Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formikonisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grammatisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphematisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinweisendes Fürwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirektes Objekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lautmalerisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexikalisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morphologisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motiviertes Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mögliches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orthographisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phonetisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phonologisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potenzielles Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schmutziges Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semantisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unmotiviertes Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syntaktisches Wort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multisegmentales Kurzwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rückbezügliches Zeitwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partielles Kurzwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persönliches Fürwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rückbezügliches Fürwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unisegmentales Kurzwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexikalisches Feld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morphologisches Merkmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semantisches Merkmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ungeschriebenes Gesetz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prosodisches Merkmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevantes Merkmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stehendes Heer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subjektives Recht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suprasegmentales Merkmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griechischer Salat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griechischer Salat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brauner Zackenbarsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reziprokes Pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absoluter Ablativ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absoluter Komparativ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absoluter Nominativ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absoluter Superlativ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freier Dativ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">einfacher Satz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eingeleiteter Nebensatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geschlossener Vokal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothetischer Imperativ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roter Hering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blauer Arbst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blutroter Täubling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasilianischer Mandelegerling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brauner Knollenblätterpilz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bunter Abend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">europäischer Strauß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynamischer Akzent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Düsterer Röhrling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flockenstieliger Hexenröhrling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glattstieliger Hexenröhrling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldgelber Lärchenröhrling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Französischer Ahorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuchsiger Rötelritterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuchsiger Rötertrichterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuchsroter Trichterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedrungener Wulstling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemeiner Anisegerling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemeiner Erdritterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echter Baldrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaugestiefelter Schleimkopf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemeiner Hallimasch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erweiterter Infinitiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemeiner Rübling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gregorianischer Choral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gregorianischer Gesang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschmückter Gürtelfuß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gescheiterter Staat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldgelber Hallimasch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldstieliger Pfifferling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granatroter Saftling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grasgrüner Täubling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graublättriger Schwefelkopf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grauer Wulstling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Großer Schmierling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüner Knollenblätterpilz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüner Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirekter Fragesatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirschroter Speitäubling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klebriger Hörnling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langstieliger Knoblauchschwindling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Löffelförmiger Seitling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mausgrauer Erdritterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Märkischer Strauß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebelgrauer Röteltrichterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebelgrauer Trichterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netzstieliger Hexenröhrling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orangegelber Wulstling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfriemförmiger Hörnling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possessiver Dativ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpurfilziger Holzritterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotbrauner Scheidenstreifling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roter Riesling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rötender Schirmling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rötlicher Holzritterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saitenstieliger Knoblauchschwindling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satzwertiger Infinitiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuppiger Porling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuppiger Stielporling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semmelgelber Stacheling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starkriechender Pfifferling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Südlicher Ackerling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Südlicher Schüppling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uneingeleiteter Nebensatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vielverfärbender Birkenpilz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violetter Lacktrichterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violetter Rötelritterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violettstieliger Pfirsich-Täubling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violettstieliger Täubling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weiterführender Nebensatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weißer Ackerling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weißer Riesling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weißer Knollenblätterpilz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weißer Sonntag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolliger Milchling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziegelroter Risspilz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zitronengelber Saftling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zweisporiger Egerling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ästiger Stachelbart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diskontinuierliches Allomorph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diskontinuierliches Morphem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finites Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freies Morphem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebundenes Morphem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grammatisches Morphem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebundenes Lexem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaghelsches Gesetz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geordnetes Paar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intransitives Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexikalisches Morphem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lichtes Maß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neoklassisches Formativ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performatives Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reflexives Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regelmäßiges Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reziprokes Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rückbezügliches Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schwaches Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starkes Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transitives Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trennbares Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unpersönliches Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unregelmäßiges Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">untrennbares Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platonisches Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">präpositionales Objekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rekombinantes Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semantisches Differential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semantisches Differenzial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unikales Morphem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zipfsches Gesetz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bürgerliches Ehrenrecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defektives Verb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humanistisches Gymnasium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lebender Briefkasten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endozentrisches Kompositum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exozentrisches Kompositum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdeutlichendes Kompositum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimmsches Wörterbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Österreichisches Wörterbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satzwertiges Partizip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">präpositionales Rektionskompositum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spezifisches Epitheton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norddeutscher Postbezirk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abgeschrägtes Dodekaeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ersticktes Matt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">therapeutischer Clown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abgelehntes Damengambit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angenommenes Damengambit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgelöstes Damengambit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolutes Tempus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">französisches Fenster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frisches Haff</t>
+  </si>
+  <si>
     <t xml:space="preserve">section_id2</t>
   </si>
   <si>
@@ -1162,6 +1814,42 @@
   </si>
   <si>
     <t xml:space="preserve">Zenzi_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essen und Trinken/Küchenkräuter und Gewürze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüßen/Abschied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruck an der Leitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konjugierte Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deklinierte Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">er/sie/es/man gewöhnt sich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endbetonte Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laut Online-Duden kann es auch ein weiblicher (Berg-)Steiger sein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plural der maskulinen Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alter,</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1859,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1199,6 +1887,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1243,7 +1936,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1257,6 +1950,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1282,10 +1983,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
@@ -1410,7 +2111,9 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -2142,23 +2845,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ349"/>
+  <dimension ref="A1:AMJ551"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A336" activeCellId="0" sqref="A336"/>
+      <selection pane="bottomLeft" activeCell="A450" activeCellId="0" sqref="A450"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
@@ -2167,7 +2870,7 @@
     </row>
     <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
@@ -2176,1674 +2879,2748 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>179</v>
+      <c r="A159" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>180</v>
+      <c r="A160" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>184</v>
+      <c r="A164" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>188</v>
+      <c r="A168" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>197</v>
+      <c r="A177" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>201</v>
+      <c r="A181" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
-        <v>204</v>
+      <c r="A184" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>205</v>
+      <c r="A185" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
-        <v>206</v>
+      <c r="A186" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>207</v>
+      <c r="A187" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
-        <v>209</v>
+      <c r="A189" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>210</v>
+      <c r="A190" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>211</v>
+      <c r="A191" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>212</v>
+      <c r="A192" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
-        <v>216</v>
+      <c r="A196" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>218</v>
+      <c r="A198" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
-        <v>221</v>
+      <c r="A201" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
         <v>224</v>
       </c>
     </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>225</v>
+      <c r="A205" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
-        <v>231</v>
+      <c r="A211" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>232</v>
+      <c r="A212" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
-        <v>234</v>
+      <c r="A214" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>235</v>
+      <c r="A215" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>236</v>
+      <c r="A216" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>237</v>
+      <c r="A217" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>240</v>
+      <c r="A220" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>241</v>
+      <c r="A221" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
-        <v>244</v>
+      <c r="A224" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>246</v>
+      <c r="A226" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
-        <v>249</v>
+      <c r="A229" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>250</v>
+      <c r="A230" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="s">
-        <v>253</v>
+      <c r="A233" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>255</v>
+      <c r="A235" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="s">
-        <v>261</v>
+      <c r="A241" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>263</v>
+      <c r="A243" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
-        <v>264</v>
+      <c r="A244" s="0" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>265</v>
+      <c r="A245" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="s">
-        <v>270</v>
+      <c r="A250" s="0" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>271</v>
+      <c r="A251" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
-        <v>290</v>
+      <c r="A270" s="0" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>291</v>
+      <c r="A271" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="s">
-        <v>292</v>
+      <c r="A272" s="0" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>293</v>
+      <c r="A273" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
-        <v>294</v>
+      <c r="A274" s="0" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>295</v>
+      <c r="A275" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="s">
-        <v>296</v>
+      <c r="A276" s="0" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>298</v>
+      <c r="A278" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="s">
-        <v>304</v>
+      <c r="A284" s="0" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
-        <v>306</v>
+      <c r="A286" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="3" t="s">
-        <v>307</v>
+      <c r="A287" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="s">
-        <v>317</v>
+      <c r="A297" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>318</v>
+      <c r="A298" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="s">
-        <v>319</v>
+      <c r="A299" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>320</v>
+      <c r="A300" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="s">
-        <v>321</v>
+      <c r="A301" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>322</v>
+      <c r="A302" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
-        <v>324</v>
+      <c r="A304" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>325</v>
+      <c r="A305" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="s">
-        <v>327</v>
+      <c r="A307" s="0" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
-        <v>332</v>
+      <c r="A312" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="s">
-        <v>337</v>
+      <c r="A317" s="0" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>338</v>
+      <c r="A318" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
-        <v>339</v>
+      <c r="A319" s="0" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
-        <v>340</v>
+      <c r="A320" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
-        <v>347</v>
+      <c r="A327" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="3" t="s">
-        <v>348</v>
+      <c r="A328" s="0" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
-        <v>349</v>
+      <c r="A329" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="3"/>
+      <c r="A342" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2"/>
+      <c r="A349" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="2" t="s">
+        <v>572</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3869,7 +5646,7 @@
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
@@ -3877,7 +5654,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>573</v>
       </c>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
@@ -3886,7 +5663,7 @@
     </row>
     <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>357</v>
+        <v>574</v>
       </c>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
@@ -3895,82 +5672,82 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>358</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>359</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>360</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>361</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>362</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>363</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>364</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>365</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>366</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>367</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>368</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>369</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>370</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>371</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>372</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>373</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,32 +5757,32 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>374</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>375</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>376</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>377</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>378</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>379</v>
+        <v>596</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4018,4 +5795,91 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>